--- a/src/main/resources/data/data-dict.xlsx
+++ b/src/main/resources/data/data-dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\rowing\rowing\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F143C-60E2-4C4D-9E17-9525E0740B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDCD5F9-2019-411C-8472-F43E39D406DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1980" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,102 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格式化模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>format_template</t>
-  </si>
-  <si>
-    <t>serial_template</t>
-  </si>
-  <si>
-    <t>format_template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serial_template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic_status</t>
-  </si>
-  <si>
-    <t>序号模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_status</t>
-  </si>
-  <si>
-    <t>active_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_status</t>
-  </si>
-  <si>
-    <t>switch_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabled_status</t>
-  </si>
-  <si>
-    <t>enabled_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_status</t>
-  </si>
-  <si>
-    <t>event_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_status</t>
-  </si>
-  <si>
-    <t>task_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,34 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间毫秒序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,34 +131,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>HH:mm:ss</t>
-  </si>
-  <si>
-    <t>yyyy-MM-ddHH:mm:ss</t>
-  </si>
-  <si>
-    <t>yyyyMMdd</t>
-  </si>
-  <si>
-    <t>HHmmss</t>
-  </si>
-  <si>
-    <t>yyyyMMddHHmmss</t>
-  </si>
-  <si>
-    <t>yyyyMMddHHmmssSSS</t>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时次数</t>
+  </si>
+  <si>
+    <t>定期次数</t>
+  </si>
+  <si>
+    <t>间隔次数</t>
+  </si>
+  <si>
+    <t>定时重复</t>
+  </si>
+  <si>
+    <t>定期重复</t>
+  </si>
+  <si>
+    <t>间隔重复</t>
+  </si>
+  <si>
+    <t>立即执行</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>schedule</t>
   </si>
 </sst>
 </file>
@@ -637,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,23 +587,23 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,56 +611,52 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -844,10 +765,6 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B5A5A6-479D-4728-BDF0-815B6628C526}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -898,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,161 +826,161 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1071,10 +988,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1082,101 +999,113 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -1223,8 +1152,19 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>